--- a/Clusters_totales3.xlsx
+++ b/Clusters_totales3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\rodrigo.guarneros\Documents\2022\pequeños operadores\BiasAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48EF217D-4B50-4EE6-B865-7E95A98CADCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0107798F-7766-4CFC-BF80-461DDA6FA341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Clusters_totales2" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="162">
   <si>
     <t>index</t>
   </si>
@@ -55,9 +55,6 @@
     <t>MEGACABLE-MCM</t>
   </si>
   <si>
-    <t>TOTALPLAY</t>
-  </si>
-  <si>
     <t>AXTEL</t>
   </si>
   <si>
@@ -73,18 +70,12 @@
     <t>Mediano</t>
   </si>
   <si>
-    <t>OUI</t>
-  </si>
-  <si>
     <t>MARCATEL</t>
   </si>
   <si>
     <t>TRANSTELCO</t>
   </si>
   <si>
-    <t>EUTELSAT AMERICAS</t>
-  </si>
-  <si>
     <t>HNS DE MEXICO</t>
   </si>
   <si>
@@ -142,15 +133,9 @@
     <t>TELECABLE MERIDA</t>
   </si>
   <si>
-    <t>Pequeño_Cluster1</t>
-  </si>
-  <si>
     <t>RAVS CABLE</t>
   </si>
   <si>
-    <t>TELESISTEMAS PENINSULARES</t>
-  </si>
-  <si>
     <t>VASANTA</t>
   </si>
   <si>
@@ -160,18 +145,12 @@
     <t>YOBI TELECOM</t>
   </si>
   <si>
-    <t>COORDINADORA DE TV POR CABLE</t>
-  </si>
-  <si>
     <t>RBACATV</t>
   </si>
   <si>
     <t>LINK TE CONECTAMOS</t>
   </si>
   <si>
-    <t>TELECABLE DE CAMPECHE</t>
-  </si>
-  <si>
     <t>WEEX</t>
   </si>
   <si>
@@ -184,9 +163,6 @@
     <t>CCA</t>
   </si>
   <si>
-    <t>GILAT</t>
-  </si>
-  <si>
     <t>CABLEVISION DE APATZINGAN</t>
   </si>
   <si>
@@ -211,9 +187,6 @@
     <t>SUPERCOM</t>
   </si>
   <si>
-    <t>TELECABLE DE TICUL</t>
-  </si>
-  <si>
     <t>AIRECABLE</t>
   </si>
   <si>
@@ -253,9 +226,6 @@
     <t>TELECABLE DE COAHUAYANA</t>
   </si>
   <si>
-    <t>TELECABLE DE CUERNAVACA</t>
-  </si>
-  <si>
     <t>BUENO CELL</t>
   </si>
   <si>
@@ -268,12 +238,6 @@
     <t>ADDINTELI</t>
   </si>
   <si>
-    <t>Pequeño_Cluster2</t>
-  </si>
-  <si>
-    <t>TELECABLE DE TEKAX</t>
-  </si>
-  <si>
     <t>HERMOVISION</t>
   </si>
   <si>
@@ -370,9 +334,6 @@
     <t>TELECABLE DE MARIANO ESCOBEDO</t>
   </si>
   <si>
-    <t>ISALIA MORENO ZETINA</t>
-  </si>
-  <si>
     <t>JAIME SANCHEZ SANCHEZ</t>
   </si>
   <si>
@@ -395,12 +356,162 @@
   </si>
   <si>
     <t>COMNET</t>
+  </si>
+  <si>
+    <t>GRUPO SALINAS</t>
+  </si>
+  <si>
+    <t>NETWEY</t>
+  </si>
+  <si>
+    <t>CENTURYLINK</t>
+  </si>
+  <si>
+    <t>TELIA CARRIER COMMUNICATIONS MEXICO</t>
+  </si>
+  <si>
+    <t>SERVITRON</t>
+  </si>
+  <si>
+    <t>GRUPO TELECABLE</t>
+  </si>
+  <si>
+    <t>TELECABLE DEL MINERAL</t>
+  </si>
+  <si>
+    <t>Pequeño1</t>
+  </si>
+  <si>
+    <t>COMUNICACION B15</t>
+  </si>
+  <si>
+    <t>TELECABLE</t>
+  </si>
+  <si>
+    <t>SCT</t>
+  </si>
+  <si>
+    <t>ALESTRA</t>
+  </si>
+  <si>
+    <t>COSMORED</t>
+  </si>
+  <si>
+    <t>TELECABLE DE RIOVERDE</t>
+  </si>
+  <si>
+    <t>LAREDONET</t>
+  </si>
+  <si>
+    <t>TELECABLE DE TAMAYO</t>
+  </si>
+  <si>
+    <t>DIVERSICABLE</t>
+  </si>
+  <si>
+    <t>SPACENET</t>
+  </si>
+  <si>
+    <t>CABLE DEL VALLE DE TOLUCA</t>
+  </si>
+  <si>
+    <t>TELEVISION DE PEDRO ESCOBEDO</t>
+  </si>
+  <si>
+    <t>CABLE DIVERSION</t>
+  </si>
+  <si>
+    <t>TELECOMUNICACIONES DE CERRITOS</t>
+  </si>
+  <si>
+    <t>ALEJANDRO MELGAREJO CORTES</t>
+  </si>
+  <si>
+    <t>TELEWEB</t>
+  </si>
+  <si>
+    <t>PROTOKOL TELECOMUNICACIONES</t>
+  </si>
+  <si>
+    <t>ALEJANDRO ALFONSO MELGAREJO ALTAMIRANO</t>
+  </si>
+  <si>
+    <t>GENY MARGARITA MOGUEL REJON</t>
+  </si>
+  <si>
+    <t>LUMENET COMUNICACIONES</t>
+  </si>
+  <si>
+    <t>ANKLA</t>
+  </si>
+  <si>
+    <t>Pequeño2</t>
+  </si>
+  <si>
+    <t>TELECABLE DE EL NARANJO</t>
+  </si>
+  <si>
+    <t>RADIO FRECUENCIAS CONCESIONADAS</t>
+  </si>
+  <si>
+    <t>MIIO</t>
+  </si>
+  <si>
+    <t>TELEVISION POR CABLE DE MUZQUIZ</t>
+  </si>
+  <si>
+    <t>SPACEX-STARLINK</t>
+  </si>
+  <si>
+    <t>CONSORCIO JAGO COMUNICACIONES</t>
+  </si>
+  <si>
+    <t>INTERCABLE DEL MAYAB</t>
+  </si>
+  <si>
+    <t>DANIEL GARCIA GODINEZ</t>
+  </si>
+  <si>
+    <t>TELECOMUNICACIONES DIVERSIFICADAS</t>
+  </si>
+  <si>
+    <t>ENTRETENIMIENTO Y TELECOMUNICACIONES</t>
+  </si>
+  <si>
+    <t>RAFAEL SANCHEZ NAZARIEGA</t>
+  </si>
+  <si>
+    <t>SISTEMA DE CABLE HKAN</t>
+  </si>
+  <si>
+    <t>CABLE SALTO DEL AGUA</t>
+  </si>
+  <si>
+    <t>ES TV COM</t>
+  </si>
+  <si>
+    <t>TOMAS CRISTOBAL CRUZ</t>
+  </si>
+  <si>
+    <t>NORMA GUTIERREZ FONG</t>
+  </si>
+  <si>
+    <t>CITRO TELECOM</t>
+  </si>
+  <si>
+    <t>AXIA CABLECENTRO</t>
+  </si>
+  <si>
+    <t>REX MOVIL</t>
+  </si>
+  <si>
+    <t>HUGO ABEL PUENTE ANGUIANO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1235,11 +1346,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F117"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F162"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="A153" sqref="A153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1254,7 +1365,7 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
@@ -1269,16 +1380,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>338320139531</v>
       </c>
       <c r="E2">
-        <v>26.54725844</v>
+        <v>26.5472584425337</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
@@ -1289,16 +1400,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1">
-        <v>59301496226.5</v>
+      <c r="D3">
+        <v>59302114566.339996</v>
       </c>
       <c r="E3">
-        <v>24.80590037</v>
+        <v>24.805910801105899</v>
       </c>
       <c r="F3" t="s">
         <v>6</v>
@@ -1309,16 +1420,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>55793781168</v>
       </c>
       <c r="E4">
-        <v>24.744928250000001</v>
+        <v>24.744928251520601</v>
       </c>
       <c r="F4" t="s">
         <v>6</v>
@@ -1329,16 +1440,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1">
-        <v>24871583943</v>
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>25905272620.43</v>
       </c>
       <c r="E5">
-        <v>23.93699178</v>
+        <v>23.977712361011399</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
@@ -1349,16 +1460,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>60</v>
+        <v>139</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1">
-        <v>24676771856.73</v>
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>24871583943</v>
       </c>
       <c r="E6">
-        <v>23.92912823</v>
+        <v>23.9369917816359</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1369,16 +1480,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="1">
-        <v>22784126736</v>
+        <v>112</v>
+      </c>
+      <c r="D7">
+        <v>23513270105.599998</v>
       </c>
       <c r="E7">
-        <v>23.84932993</v>
+        <v>23.880830784066401</v>
       </c>
       <c r="F7" t="s">
         <v>6</v>
@@ -1389,16 +1500,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="1">
-        <v>8742237448</v>
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>11496829253</v>
       </c>
       <c r="E8">
-        <v>22.891431990000001</v>
+        <v>23.1653371171682</v>
       </c>
       <c r="F8" t="s">
         <v>6</v>
@@ -1409,16 +1520,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="1">
+        <v>12</v>
+      </c>
+      <c r="D9">
         <v>5158705766.1000004</v>
       </c>
       <c r="E9">
-        <v>22.36395156</v>
+        <v>22.363951564455899</v>
       </c>
       <c r="F9" t="s">
         <v>6</v>
@@ -1429,16 +1540,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="1">
+        <v>13</v>
+      </c>
+      <c r="D10">
         <v>2834607753.3000002</v>
       </c>
       <c r="E10">
-        <v>21.765169409999999</v>
+        <v>21.765169405929299</v>
       </c>
       <c r="F10" t="s">
         <v>6</v>
@@ -1449,19 +1560,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <v>1114192164.9300001</v>
+      </c>
+      <c r="E11">
+        <v>20.831395463512202</v>
+      </c>
+      <c r="F11" t="s">
         <v>15</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1280858831.54</v>
-      </c>
-      <c r="E11">
-        <v>20.97079665</v>
-      </c>
-      <c r="F11" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -1469,19 +1580,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="1">
-        <v>729143369.60000002</v>
+        <v>16</v>
+      </c>
+      <c r="D12">
+        <v>697511563.79999995</v>
       </c>
       <c r="E12">
-        <v>20.407380939999999</v>
+        <v>20.363029650447</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -1489,19 +1600,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="1">
-        <v>697511563.79999995</v>
+        <v>113</v>
+      </c>
+      <c r="D13">
+        <v>667930436.20000005</v>
       </c>
       <c r="E13">
-        <v>20.363029650000001</v>
+        <v>20.319694588653</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -1509,19 +1620,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>103</v>
+        <v>147</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="1">
+        <v>17</v>
+      </c>
+      <c r="D14">
         <v>623598170</v>
       </c>
       <c r="E14">
-        <v>20.251016759999999</v>
+        <v>20.251016760570099</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -1529,19 +1640,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="1">
-        <v>567683560.60000002</v>
+        <v>114</v>
+      </c>
+      <c r="D15">
+        <v>512839717.19999999</v>
       </c>
       <c r="E15">
-        <v>20.15707471</v>
+        <v>20.0554739122095</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -1549,19 +1660,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="1">
+        <v>18</v>
+      </c>
+      <c r="D16">
         <v>503481972.5</v>
       </c>
       <c r="E16">
-        <v>20.037058470000002</v>
+        <v>20.037058465112398</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -1569,19 +1680,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>42</v>
+        <v>143</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="1">
-        <v>418410240.13</v>
+        <v>115</v>
+      </c>
+      <c r="D17">
+        <v>422577609.80000001</v>
       </c>
       <c r="E17">
-        <v>19.85197294</v>
+        <v>19.8618836797265</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -1589,19 +1700,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="1">
-        <v>330305215</v>
+        <v>19</v>
+      </c>
+      <c r="D18">
+        <v>418410240.13</v>
       </c>
       <c r="E18">
-        <v>19.61552768</v>
+        <v>19.851972944913499</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -1609,19 +1720,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>111</v>
+        <v>152</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="1">
-        <v>258650617.38999999</v>
+        <v>20</v>
+      </c>
+      <c r="D19">
+        <v>329453439</v>
       </c>
       <c r="E19">
-        <v>19.370988740000001</v>
+        <v>19.612945593879399</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -1629,19 +1740,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="1">
-        <v>214085985.15000001</v>
+        <v>22</v>
+      </c>
+      <c r="D20">
+        <v>279907379.63999999</v>
       </c>
       <c r="E20">
-        <v>19.18188829</v>
+        <v>19.449969319411402</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -1649,19 +1760,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="1">
+        <v>23</v>
+      </c>
+      <c r="D21">
         <v>199874961.31</v>
       </c>
       <c r="E21">
-        <v>19.11320254</v>
+        <v>19.113202535547298</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
@@ -1669,19 +1780,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33</v>
+        <v>156</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="1">
-        <v>171006327</v>
+        <v>21</v>
+      </c>
+      <c r="D22">
+        <v>195055919.44999999</v>
       </c>
       <c r="E22">
-        <v>18.957211109999999</v>
+        <v>19.0887968418286</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
@@ -1689,19 +1800,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="1">
-        <v>168138066.74000001</v>
+        <v>24</v>
+      </c>
+      <c r="D23">
+        <v>171006327</v>
       </c>
       <c r="E23">
-        <v>18.940296029999999</v>
+        <v>18.9572111137824</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
@@ -1709,19 +1820,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="1">
-        <v>166683898.52000001</v>
+        <v>25</v>
+      </c>
+      <c r="D24">
+        <v>168138066.74000001</v>
       </c>
       <c r="E24">
-        <v>18.93160975</v>
+        <v>18.940296025686902</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
@@ -1729,19 +1840,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>44</v>
+        <v>159</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="1">
-        <v>152043313.94999999</v>
+        <v>26</v>
+      </c>
+      <c r="D25">
+        <v>166683898.519999</v>
       </c>
       <c r="E25">
-        <v>18.839676000000001</v>
+        <v>18.931609753493799</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
@@ -1749,19 +1860,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="1">
-        <v>146563495</v>
+        <v>27</v>
+      </c>
+      <c r="D26">
+        <v>152043313.94999999</v>
       </c>
       <c r="E26">
-        <v>18.802969310000002</v>
+        <v>18.8396759984144</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
@@ -1769,19 +1880,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="1">
-        <v>112440924</v>
+        <v>116</v>
+      </c>
+      <c r="D27">
+        <v>147707694</v>
       </c>
       <c r="E27">
-        <v>18.537938520000001</v>
+        <v>18.810745838223401</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
@@ -1789,19 +1900,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>22</v>
+        <v>157</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="1">
-        <v>98055591.640000001</v>
+        <v>28</v>
+      </c>
+      <c r="D28">
+        <v>146563495</v>
       </c>
       <c r="E28">
-        <v>18.401045140000001</v>
+        <v>18.8029693054944</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
@@ -1809,19 +1920,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="1">
-        <v>88198181.799999997</v>
+        <v>117</v>
+      </c>
+      <c r="D29">
+        <v>121669467.049999</v>
       </c>
       <c r="E29">
-        <v>18.295096910000002</v>
+        <v>18.616818639462998</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
@@ -1829,19 +1940,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" s="1">
-        <v>85875584.599999994</v>
+        <v>118</v>
+      </c>
+      <c r="D30">
+        <v>114326115.06</v>
       </c>
       <c r="E30">
-        <v>18.268410119999999</v>
+        <v>18.554565580883001</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
@@ -1852,16 +1963,16 @@
         <v>48</v>
       </c>
       <c r="C31" t="s">
-        <v>36</v>
-      </c>
-      <c r="D31" s="1">
-        <v>83697002.459999993</v>
+        <v>29</v>
+      </c>
+      <c r="D31">
+        <v>112440924</v>
       </c>
       <c r="E31">
-        <v>18.242713720000001</v>
+        <v>18.5379385216849</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
@@ -1869,19 +1980,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" s="1">
-        <v>83430627</v>
+        <v>30</v>
+      </c>
+      <c r="D32">
+        <v>98055591.640000001</v>
       </c>
       <c r="E32">
-        <v>18.23952603</v>
+        <v>18.4010451374354</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
@@ -1889,19 +2000,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="C33" t="s">
-        <v>38</v>
-      </c>
-      <c r="D33" s="1">
-        <v>82752385</v>
+        <v>32</v>
+      </c>
+      <c r="D33">
+        <v>85875584.599999994</v>
       </c>
       <c r="E33">
-        <v>18.231363389999999</v>
+        <v>18.268410116052699</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
@@ -1909,19 +2020,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="C34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D34" s="1">
-        <v>57912579.93</v>
+        <v>33</v>
+      </c>
+      <c r="D34">
+        <v>83697002.459999993</v>
       </c>
       <c r="E34">
-        <v>17.874445189999999</v>
+        <v>18.242713721915099</v>
       </c>
       <c r="F34" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
@@ -1929,19 +2040,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C35" t="s">
-        <v>41</v>
-      </c>
-      <c r="D35" s="1">
-        <v>56882777.340000004</v>
+        <v>34</v>
+      </c>
+      <c r="D35">
+        <v>83430627</v>
       </c>
       <c r="E35">
-        <v>17.85650317</v>
+        <v>18.2395260301322</v>
       </c>
       <c r="F35" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
@@ -1949,19 +2060,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C36" t="s">
-        <v>42</v>
-      </c>
-      <c r="D36" s="1">
-        <v>56882777.340000004</v>
+        <v>35</v>
+      </c>
+      <c r="D36">
+        <v>82752385</v>
       </c>
       <c r="E36">
-        <v>17.85650317</v>
+        <v>18.231363393558301</v>
       </c>
       <c r="F36" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
@@ -1969,19 +2080,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="C37" t="s">
-        <v>43</v>
-      </c>
-      <c r="D37" s="1">
-        <v>54810014.390000001</v>
+        <v>36</v>
+      </c>
+      <c r="D37">
+        <v>57912579.93</v>
       </c>
       <c r="E37">
-        <v>17.819383479999999</v>
+        <v>17.874445188891698</v>
       </c>
       <c r="F37" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
@@ -1989,19 +2100,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="C38" t="s">
-        <v>44</v>
-      </c>
-      <c r="D38" s="1">
-        <v>43442489.729999997</v>
+        <v>37</v>
+      </c>
+      <c r="D38">
+        <v>56882777.339999899</v>
       </c>
       <c r="E38">
-        <v>17.586948549999999</v>
+        <v>17.856503170326199</v>
       </c>
       <c r="F38" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
@@ -2009,19 +2120,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>115</v>
+        <v>155</v>
       </c>
       <c r="C39" t="s">
-        <v>45</v>
-      </c>
-      <c r="D39" s="1">
-        <v>43316604.869999997</v>
+        <v>38</v>
+      </c>
+      <c r="D39">
+        <v>54810014.390000001</v>
       </c>
       <c r="E39">
-        <v>17.584046600000001</v>
+        <v>17.819383479565499</v>
       </c>
       <c r="F39" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
@@ -2029,19 +2140,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C40" t="s">
-        <v>46</v>
-      </c>
-      <c r="D40" s="1">
-        <v>41293042</v>
+        <v>120</v>
+      </c>
+      <c r="D40">
+        <v>48592969.18</v>
       </c>
       <c r="E40">
-        <v>17.536204569999999</v>
+        <v>17.698989411327201</v>
       </c>
       <c r="F40" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
@@ -2049,19 +2160,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="C41" t="s">
-        <v>47</v>
-      </c>
-      <c r="D41" s="1">
-        <v>41185567.119999997</v>
+        <v>39</v>
+      </c>
+      <c r="D41">
+        <v>43442489.729999997</v>
       </c>
       <c r="E41">
-        <v>17.533598439999999</v>
+        <v>17.586948546174</v>
       </c>
       <c r="F41" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
@@ -2069,19 +2180,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>53</v>
+        <v>160</v>
       </c>
       <c r="C42" t="s">
-        <v>48</v>
-      </c>
-      <c r="D42" s="1">
-        <v>39772709.340000004</v>
+        <v>40</v>
+      </c>
+      <c r="D42">
+        <v>43316604.869999997</v>
       </c>
       <c r="E42">
-        <v>17.498691539999999</v>
+        <v>17.584046603756999</v>
       </c>
       <c r="F42" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
@@ -2089,19 +2200,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="C43" t="s">
-        <v>49</v>
-      </c>
-      <c r="D43" s="1">
-        <v>37452991.159999996</v>
+        <v>121</v>
+      </c>
+      <c r="D43">
+        <v>41293042</v>
       </c>
       <c r="E43">
-        <v>17.438597139999999</v>
+        <v>17.536204569161502</v>
       </c>
       <c r="F43" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
@@ -2109,19 +2220,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C44" t="s">
-        <v>50</v>
-      </c>
-      <c r="D44" s="1">
-        <v>33446465.010000002</v>
+        <v>41</v>
+      </c>
+      <c r="D44">
+        <v>41185567.119999997</v>
       </c>
       <c r="E44">
-        <v>17.32545666</v>
+        <v>17.5335984403245</v>
       </c>
       <c r="F44" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
@@ -2129,19 +2240,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="C45" t="s">
-        <v>51</v>
-      </c>
-      <c r="D45" s="1">
-        <v>30996417.969999999</v>
+        <v>42</v>
+      </c>
+      <c r="D45">
+        <v>39772709.339999899</v>
       </c>
       <c r="E45">
-        <v>17.24938221</v>
+        <v>17.498691540083399</v>
       </c>
       <c r="F45" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
@@ -2149,19 +2260,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>75</v>
+        <v>158</v>
       </c>
       <c r="C46" t="s">
-        <v>52</v>
-      </c>
-      <c r="D46" s="1">
-        <v>30681112.210000001</v>
+        <v>43</v>
+      </c>
+      <c r="D46">
+        <v>33446465.010000002</v>
       </c>
       <c r="E46">
-        <v>17.23915779</v>
+        <v>17.325456659133302</v>
       </c>
       <c r="F46" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
@@ -2169,19 +2280,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C47" t="s">
-        <v>53</v>
-      </c>
-      <c r="D47" s="1">
-        <v>25732892.399999999</v>
+        <v>44</v>
+      </c>
+      <c r="D47">
+        <v>30996417.969999999</v>
       </c>
       <c r="E47">
-        <v>17.063280590000002</v>
+        <v>17.249382206418201</v>
       </c>
       <c r="F47" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
@@ -2189,19 +2300,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="C48" t="s">
-        <v>54</v>
-      </c>
-      <c r="D48" s="1">
-        <v>23760000</v>
+        <v>45</v>
+      </c>
+      <c r="D48">
+        <v>30681112.210000001</v>
       </c>
       <c r="E48">
-        <v>16.98351405</v>
+        <v>17.2391577857619</v>
       </c>
       <c r="F48" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
@@ -2209,19 +2320,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="C49" t="s">
-        <v>55</v>
-      </c>
-      <c r="D49" s="1">
-        <v>22951649.170000002</v>
+        <v>122</v>
+      </c>
+      <c r="D49">
+        <v>28663065.780000001</v>
       </c>
       <c r="E49">
-        <v>16.948900349999999</v>
+        <v>17.171119945334201</v>
       </c>
       <c r="F49" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
@@ -2229,19 +2340,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>56</v>
-      </c>
-      <c r="D50" s="1">
-        <v>22882396.870000001</v>
+        <v>123</v>
+      </c>
+      <c r="D50">
+        <v>27463169.379999999</v>
       </c>
       <c r="E50">
-        <v>16.945878480000001</v>
+        <v>17.128356369706498</v>
       </c>
       <c r="F50" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
@@ -2249,19 +2360,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="C51" t="s">
-        <v>57</v>
-      </c>
-      <c r="D51" s="1">
-        <v>22748620.760000002</v>
+        <v>124</v>
+      </c>
+      <c r="D51">
+        <v>26723111</v>
       </c>
       <c r="E51">
-        <v>16.940015079999998</v>
+        <v>17.101039329496</v>
       </c>
       <c r="F51" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
@@ -2269,19 +2380,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="C52" t="s">
-        <v>58</v>
-      </c>
-      <c r="D52" s="1">
-        <v>22415416.379999999</v>
+        <v>46</v>
+      </c>
+      <c r="D52">
+        <v>25732892.399999999</v>
       </c>
       <c r="E52">
-        <v>16.92525951</v>
+        <v>17.063280591464999</v>
       </c>
       <c r="F52" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
@@ -2289,19 +2400,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="C53" t="s">
-        <v>59</v>
-      </c>
-      <c r="D53" s="1">
-        <v>20978416</v>
+        <v>47</v>
+      </c>
+      <c r="D53">
+        <v>22951649.170000002</v>
       </c>
       <c r="E53">
-        <v>16.85900466</v>
+        <v>16.9489003511483</v>
       </c>
       <c r="F53" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
@@ -2309,19 +2420,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C54" t="s">
-        <v>60</v>
-      </c>
-      <c r="D54" s="1">
-        <v>20575592</v>
+        <v>48</v>
+      </c>
+      <c r="D54">
+        <v>22882396.8699999</v>
       </c>
       <c r="E54">
-        <v>16.839616079999999</v>
+        <v>16.945878477293299</v>
       </c>
       <c r="F54" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
@@ -2329,19 +2440,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="C55" t="s">
-        <v>61</v>
-      </c>
-      <c r="D55" s="1">
-        <v>14530785</v>
+        <v>50</v>
+      </c>
+      <c r="D55">
+        <v>22415416.379999999</v>
       </c>
       <c r="E55">
-        <v>16.49178006</v>
+        <v>16.925259511352699</v>
       </c>
       <c r="F55" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
@@ -2349,19 +2460,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="C56" t="s">
-        <v>62</v>
-      </c>
-      <c r="D56" s="1">
-        <v>14324655.060000001</v>
+        <v>31</v>
+      </c>
+      <c r="D56">
+        <v>22376787.309999999</v>
       </c>
       <c r="E56">
-        <v>16.477492739999999</v>
+        <v>16.923534698711499</v>
       </c>
       <c r="F56" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
@@ -2369,19 +2480,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="C57" t="s">
-        <v>63</v>
-      </c>
-      <c r="D57" s="1">
-        <v>13975584.41</v>
+        <v>125</v>
+      </c>
+      <c r="D57">
+        <v>21243686</v>
       </c>
       <c r="E57">
-        <v>16.452822390000001</v>
+        <v>16.871570279771198</v>
       </c>
       <c r="F57" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
@@ -2389,19 +2500,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>2</v>
+        <v>133</v>
       </c>
       <c r="C58" t="s">
-        <v>64</v>
-      </c>
-      <c r="D58" s="1">
-        <v>13327321.140000001</v>
+        <v>51</v>
+      </c>
+      <c r="D58">
+        <v>20978416</v>
       </c>
       <c r="E58">
-        <v>16.405326710000001</v>
+        <v>16.8590046576054</v>
       </c>
       <c r="F58" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
@@ -2409,19 +2520,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>66</v>
+        <v>136</v>
       </c>
       <c r="C59" t="s">
-        <v>65</v>
-      </c>
-      <c r="D59" s="1">
-        <v>13240100.65</v>
+        <v>52</v>
+      </c>
+      <c r="D59">
+        <v>20575592</v>
       </c>
       <c r="E59">
-        <v>16.398760710000001</v>
+        <v>16.839616076895901</v>
       </c>
       <c r="F59" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
@@ -2429,19 +2540,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C60" t="s">
-        <v>66</v>
-      </c>
-      <c r="D60" s="1">
-        <v>13182166.34</v>
+        <v>126</v>
+      </c>
+      <c r="D60">
+        <v>20058416.809999999</v>
       </c>
       <c r="E60">
-        <v>16.394375440000001</v>
+        <v>16.814159414651598</v>
       </c>
       <c r="F60" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
@@ -2449,19 +2560,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>17</v>
+        <v>131</v>
       </c>
       <c r="C61" t="s">
-        <v>67</v>
-      </c>
-      <c r="D61" s="1">
-        <v>12929306</v>
+        <v>127</v>
+      </c>
+      <c r="D61">
+        <v>19635213.800000001</v>
       </c>
       <c r="E61">
-        <v>16.37500708</v>
+        <v>16.792835134653998</v>
       </c>
       <c r="F61" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
@@ -2472,16 +2583,16 @@
         <v>39</v>
       </c>
       <c r="C62" t="s">
-        <v>68</v>
-      </c>
-      <c r="D62" s="1">
-        <v>12923384.75</v>
+        <v>128</v>
+      </c>
+      <c r="D62">
+        <v>19355995.640000001</v>
       </c>
       <c r="E62">
-        <v>16.374548999999998</v>
+        <v>16.7785127816421</v>
       </c>
       <c r="F62" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
@@ -2489,19 +2600,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="C63" t="s">
-        <v>69</v>
-      </c>
-      <c r="D63" s="1">
-        <v>12430338.43</v>
+        <v>129</v>
+      </c>
+      <c r="D63">
+        <v>16624931</v>
       </c>
       <c r="E63">
-        <v>16.335650690000001</v>
+        <v>16.626413994121599</v>
       </c>
       <c r="F63" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
@@ -2509,19 +2620,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="C64" t="s">
-        <v>70</v>
-      </c>
-      <c r="D64" s="1">
-        <v>12345586.210000001</v>
+        <v>130</v>
+      </c>
+      <c r="D64">
+        <v>16624450.52</v>
       </c>
       <c r="E64">
-        <v>16.32880917</v>
+        <v>16.6263850925314</v>
       </c>
       <c r="F64" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
@@ -2529,19 +2640,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>61</v>
+        <v>153</v>
       </c>
       <c r="C65" t="s">
-        <v>71</v>
-      </c>
-      <c r="D65" s="1">
-        <v>11666600.699999999</v>
+        <v>53</v>
+      </c>
+      <c r="D65">
+        <v>14530785</v>
       </c>
       <c r="E65">
-        <v>16.272240679999999</v>
+        <v>16.491780060239801</v>
       </c>
       <c r="F65" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
@@ -2549,19 +2660,19 @@
         <v>64</v>
       </c>
       <c r="B66">
+        <v>123</v>
+      </c>
+      <c r="C66" t="s">
         <v>54</v>
       </c>
-      <c r="C66" t="s">
-        <v>72</v>
-      </c>
-      <c r="D66" s="1">
-        <v>11100067.82</v>
+      <c r="D66">
+        <v>14324655.0599999</v>
       </c>
       <c r="E66">
-        <v>16.22246178</v>
+        <v>16.477492740694</v>
       </c>
       <c r="F66" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
@@ -2569,19 +2680,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>67</v>
+        <v>140</v>
       </c>
       <c r="C67" t="s">
-        <v>73</v>
-      </c>
-      <c r="D67" s="1">
-        <v>10625579.42</v>
+        <v>131</v>
+      </c>
+      <c r="D67">
+        <v>13957520</v>
       </c>
       <c r="E67">
-        <v>16.178774799999999</v>
+        <v>16.451528989086899</v>
       </c>
       <c r="F67" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
@@ -2589,19 +2700,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C68" t="s">
-        <v>74</v>
-      </c>
-      <c r="D68" s="1">
-        <v>8419766.9900000002</v>
+        <v>55</v>
+      </c>
+      <c r="D68">
+        <v>13327321.140000001</v>
       </c>
       <c r="E68">
-        <v>15.94609271</v>
+        <v>16.405326707217501</v>
       </c>
       <c r="F68" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
@@ -2609,19 +2720,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="C69" t="s">
-        <v>75</v>
-      </c>
-      <c r="D69" s="1">
-        <v>8211222</v>
+        <v>56</v>
+      </c>
+      <c r="D69">
+        <v>13240100.65</v>
       </c>
       <c r="E69">
-        <v>15.92101231</v>
+        <v>16.398760710407899</v>
       </c>
       <c r="F69" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
@@ -2629,19 +2740,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C70" t="s">
-        <v>76</v>
-      </c>
-      <c r="D70" s="1">
-        <v>7994366.25</v>
+        <v>57</v>
+      </c>
+      <c r="D70">
+        <v>13182166.34</v>
       </c>
       <c r="E70">
-        <v>15.894247630000001</v>
+        <v>16.394375439237599</v>
       </c>
       <c r="F70" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
@@ -2649,19 +2760,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="C71" t="s">
-        <v>77</v>
-      </c>
-      <c r="D71" s="1">
-        <v>7884565.2599999998</v>
+        <v>58</v>
+      </c>
+      <c r="D71">
+        <v>12929306</v>
       </c>
       <c r="E71">
-        <v>15.880417639999999</v>
+        <v>16.375007075680301</v>
       </c>
       <c r="F71" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
@@ -2669,19 +2780,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C72" t="s">
-        <v>78</v>
-      </c>
-      <c r="D72" s="1">
-        <v>7300991.6600000001</v>
+        <v>59</v>
+      </c>
+      <c r="D72">
+        <v>12923384.75</v>
       </c>
       <c r="E72">
-        <v>15.80352074</v>
+        <v>16.374548999562698</v>
       </c>
       <c r="F72" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
@@ -2689,19 +2800,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="C73" t="s">
-        <v>79</v>
-      </c>
-      <c r="D73" s="1">
-        <v>6533160.4199999999</v>
+        <v>60</v>
+      </c>
+      <c r="D73">
+        <v>12430338.43</v>
       </c>
       <c r="E73">
-        <v>15.692401370000001</v>
+        <v>16.3356506899867</v>
       </c>
       <c r="F73" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
@@ -2709,19 +2820,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C74" t="s">
-        <v>80</v>
-      </c>
-      <c r="D74" s="1">
-        <v>6023883.0700000003</v>
+        <v>61</v>
+      </c>
+      <c r="D74">
+        <v>12345586.210000001</v>
       </c>
       <c r="E74">
-        <v>15.61124264</v>
+        <v>16.328809165255699</v>
       </c>
       <c r="F74" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
@@ -2729,19 +2840,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="C75" t="s">
-        <v>81</v>
-      </c>
-      <c r="D75" s="1">
-        <v>5534961</v>
+        <v>62</v>
+      </c>
+      <c r="D75">
+        <v>11666600.699999999</v>
       </c>
       <c r="E75">
-        <v>15.52659508</v>
+        <v>16.272240676483801</v>
       </c>
       <c r="F75" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
@@ -2749,19 +2860,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="C76" t="s">
-        <v>83</v>
-      </c>
-      <c r="D76" s="1">
-        <v>5473548.8799999999</v>
+        <v>63</v>
+      </c>
+      <c r="D76">
+        <v>11100067.82</v>
       </c>
       <c r="E76">
-        <v>15.51543775</v>
+        <v>16.222461776173802</v>
       </c>
       <c r="F76" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
@@ -2769,19 +2880,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C77" t="s">
-        <v>84</v>
-      </c>
-      <c r="D77" s="1">
-        <v>4917794</v>
+        <v>132</v>
+      </c>
+      <c r="D77">
+        <v>10964574.060000001</v>
       </c>
       <c r="E77">
-        <v>15.40837061</v>
+        <v>16.210180093662299</v>
       </c>
       <c r="F77" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
@@ -2789,19 +2900,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="C78" t="s">
-        <v>85</v>
-      </c>
-      <c r="D78" s="1">
-        <v>4796982.79</v>
+        <v>64</v>
+      </c>
+      <c r="D78">
+        <v>10625579.42</v>
       </c>
       <c r="E78">
-        <v>15.38349769</v>
+        <v>16.1787748049349</v>
       </c>
       <c r="F78" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
@@ -2809,19 +2920,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>63</v>
+        <v>137</v>
       </c>
       <c r="C79" t="s">
-        <v>86</v>
-      </c>
-      <c r="D79" s="1">
-        <v>4756865</v>
+        <v>133</v>
+      </c>
+      <c r="D79">
+        <v>9344133</v>
       </c>
       <c r="E79">
-        <v>15.3750994</v>
+        <v>16.050259217681699</v>
       </c>
       <c r="F79" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
@@ -2829,19 +2940,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>94</v>
+        <v>148</v>
       </c>
       <c r="C80" t="s">
-        <v>87</v>
-      </c>
-      <c r="D80" s="1">
-        <v>4355978.46</v>
+        <v>65</v>
+      </c>
+      <c r="D80">
+        <v>8419766.9900000002</v>
       </c>
       <c r="E80">
-        <v>15.28705982</v>
+        <v>15.946092712438899</v>
       </c>
       <c r="F80" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
@@ -2849,19 +2960,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C81" t="s">
-        <v>88</v>
-      </c>
-      <c r="D81" s="1">
-        <v>4266116</v>
+        <v>66</v>
+      </c>
+      <c r="D81">
+        <v>8211222</v>
       </c>
       <c r="E81">
-        <v>15.26621437</v>
+        <v>15.9210123132271</v>
       </c>
       <c r="F81" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
@@ -2869,19 +2980,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="C82" t="s">
-        <v>89</v>
-      </c>
-      <c r="D82" s="1">
-        <v>4003498.07</v>
+        <v>67</v>
+      </c>
+      <c r="D82">
+        <v>7994366.25</v>
       </c>
       <c r="E82">
-        <v>15.20267905</v>
+        <v>15.894247632815601</v>
       </c>
       <c r="F82" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
@@ -2889,19 +3000,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="C83" t="s">
-        <v>90</v>
-      </c>
-      <c r="D83" s="1">
-        <v>3300058</v>
+        <v>134</v>
+      </c>
+      <c r="D83">
+        <v>7759103.3999999901</v>
       </c>
       <c r="E83">
-        <v>15.009450599999999</v>
+        <v>15.864377344246799</v>
       </c>
       <c r="F83" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
@@ -2909,19 +3020,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="C84" t="s">
-        <v>91</v>
-      </c>
-      <c r="D84" s="1">
-        <v>3185056</v>
+        <v>135</v>
+      </c>
+      <c r="D84">
+        <v>7400411.2300000004</v>
       </c>
       <c r="E84">
-        <v>14.973980429999999</v>
+        <v>15.817046128251899</v>
       </c>
       <c r="F84" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
@@ -2929,19 +3040,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="C85" t="s">
-        <v>92</v>
-      </c>
-      <c r="D85" s="1">
-        <v>2856870</v>
+        <v>136</v>
+      </c>
+      <c r="D85">
+        <v>7313137.8599999901</v>
       </c>
       <c r="E85">
-        <v>14.865237179999999</v>
+        <v>15.805182995435899</v>
       </c>
       <c r="F85" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
@@ -2949,19 +3060,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="C86" t="s">
-        <v>93</v>
-      </c>
-      <c r="D86" s="1">
-        <v>2836838.87</v>
+        <v>68</v>
+      </c>
+      <c r="D86">
+        <v>7300991.6599999899</v>
       </c>
       <c r="E86">
-        <v>14.85820092</v>
+        <v>15.803520740728199</v>
       </c>
       <c r="F86" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
@@ -2969,19 +3080,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="C87" t="s">
-        <v>94</v>
-      </c>
-      <c r="D87" s="1">
-        <v>2770189.31</v>
+        <v>69</v>
+      </c>
+      <c r="D87">
+        <v>6533160.4199999999</v>
       </c>
       <c r="E87">
-        <v>14.834426219999999</v>
+        <v>15.6924013688558</v>
       </c>
       <c r="F87" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
@@ -2992,16 +3103,16 @@
         <v>5</v>
       </c>
       <c r="C88" t="s">
-        <v>95</v>
-      </c>
-      <c r="D88" s="1">
-        <v>2757493</v>
+        <v>137</v>
+      </c>
+      <c r="D88">
+        <v>6246156.1999999899</v>
       </c>
       <c r="E88">
-        <v>14.829832489999999</v>
+        <v>15.647476824517501</v>
       </c>
       <c r="F88" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
@@ -3009,19 +3120,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C89" t="s">
-        <v>96</v>
-      </c>
-      <c r="D89" s="1">
-        <v>2726562.21</v>
+        <v>138</v>
+      </c>
+      <c r="D89">
+        <v>6044162.8699999899</v>
       </c>
       <c r="E89">
-        <v>14.818552110000001</v>
+        <v>15.614603549397501</v>
       </c>
       <c r="F89" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
@@ -3029,19 +3140,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>76</v>
+        <v>151</v>
       </c>
       <c r="C90" t="s">
-        <v>97</v>
-      </c>
-      <c r="D90" s="1">
-        <v>2717734.33</v>
+        <v>70</v>
+      </c>
+      <c r="D90">
+        <v>6023883.0700000003</v>
       </c>
       <c r="E90">
-        <v>14.81530912</v>
+        <v>15.611242637582899</v>
       </c>
       <c r="F90" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
@@ -3049,19 +3160,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="C91" t="s">
-        <v>98</v>
-      </c>
-      <c r="D91" s="1">
-        <v>2598078</v>
+        <v>139</v>
+      </c>
+      <c r="D91">
+        <v>5965897.3499999996</v>
       </c>
       <c r="E91">
-        <v>14.7702825</v>
+        <v>15.6015700380757</v>
       </c>
       <c r="F91" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
@@ -3069,19 +3180,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="C92" t="s">
-        <v>99</v>
-      </c>
-      <c r="D92" s="1">
-        <v>2598078</v>
+        <v>71</v>
+      </c>
+      <c r="D92">
+        <v>5534961</v>
       </c>
       <c r="E92">
-        <v>14.7702825</v>
+        <v>15.5265950780295</v>
       </c>
       <c r="F92" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
@@ -3089,19 +3200,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="C93" t="s">
-        <v>100</v>
-      </c>
-      <c r="D93" s="1">
-        <v>2460596.77</v>
+        <v>140</v>
+      </c>
+      <c r="D93">
+        <v>5437985</v>
       </c>
       <c r="E93">
-        <v>14.71591447</v>
+        <v>15.5089191458037</v>
       </c>
       <c r="F93" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
@@ -3109,19 +3220,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="C94" t="s">
-        <v>101</v>
-      </c>
-      <c r="D94" s="1">
-        <v>2365983.5</v>
+        <v>72</v>
+      </c>
+      <c r="D94">
+        <v>4917794</v>
       </c>
       <c r="E94">
-        <v>14.67670435</v>
+        <v>15.408370613935</v>
       </c>
       <c r="F94" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
@@ -3129,19 +3240,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="C95" t="s">
-        <v>102</v>
-      </c>
-      <c r="D95" s="1">
-        <v>2364694.58</v>
+        <v>73</v>
+      </c>
+      <c r="D95">
+        <v>4796982.79</v>
       </c>
       <c r="E95">
-        <v>14.67615943</v>
+        <v>15.3834976928188</v>
       </c>
       <c r="F95" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
@@ -3149,19 +3260,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="C96" t="s">
-        <v>103</v>
-      </c>
-      <c r="D96" s="1">
-        <v>2323024.23</v>
+        <v>74</v>
+      </c>
+      <c r="D96">
+        <v>4756865</v>
       </c>
       <c r="E96">
-        <v>14.65838044</v>
+        <v>15.375099395781101</v>
       </c>
       <c r="F96" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
@@ -3169,19 +3280,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="C97" t="s">
-        <v>104</v>
-      </c>
-      <c r="D97" s="1">
-        <v>2288255</v>
+        <v>49</v>
+      </c>
+      <c r="D97">
+        <v>4720179.6900000004</v>
       </c>
       <c r="E97">
-        <v>14.643300079999999</v>
+        <v>15.367357426752299</v>
       </c>
       <c r="F97" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
@@ -3189,19 +3300,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>51</v>
+        <v>132</v>
       </c>
       <c r="C98" t="s">
-        <v>105</v>
-      </c>
-      <c r="D98" s="1">
-        <v>2279442</v>
+        <v>75</v>
+      </c>
+      <c r="D98">
+        <v>4355978.46</v>
       </c>
       <c r="E98">
-        <v>14.639441229999999</v>
+        <v>15.287059818119101</v>
       </c>
       <c r="F98" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
@@ -3209,19 +3320,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="C99" t="s">
-        <v>106</v>
-      </c>
-      <c r="D99" s="1">
-        <v>2251968.94</v>
+        <v>76</v>
+      </c>
+      <c r="D99">
+        <v>4266116</v>
       </c>
       <c r="E99">
-        <v>14.62731548</v>
+        <v>15.266214369392401</v>
       </c>
       <c r="F99" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
@@ -3229,19 +3340,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>55</v>
+        <v>128</v>
       </c>
       <c r="C100" t="s">
-        <v>107</v>
-      </c>
-      <c r="D100" s="1">
-        <v>2199560</v>
+        <v>142</v>
+      </c>
+      <c r="D100">
+        <v>4135348</v>
       </c>
       <c r="E100">
-        <v>14.603767899999999</v>
+        <v>15.235082042511699</v>
       </c>
       <c r="F100" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
@@ -3249,19 +3360,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="C101" t="s">
-        <v>108</v>
-      </c>
-      <c r="D101" s="1">
-        <v>2144621.65</v>
+        <v>77</v>
+      </c>
+      <c r="D101">
+        <v>4003498.07</v>
       </c>
       <c r="E101">
-        <v>14.578473710000001</v>
+        <v>15.2026790544165</v>
       </c>
       <c r="F101" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
@@ -3269,19 +3380,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="C102" t="s">
-        <v>109</v>
-      </c>
-      <c r="D102" s="1">
-        <v>1765344.83</v>
+        <v>143</v>
+      </c>
+      <c r="D102">
+        <v>3778876</v>
       </c>
       <c r="E102">
-        <v>14.3838566</v>
+        <v>15.1449371688798</v>
       </c>
       <c r="F102" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
@@ -3289,19 +3400,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="C103" t="s">
-        <v>110</v>
-      </c>
-      <c r="D103" s="1">
-        <v>1533408.12</v>
+        <v>78</v>
+      </c>
+      <c r="D103">
+        <v>3300058</v>
       </c>
       <c r="E103">
-        <v>14.24300335</v>
+        <v>15.0094506020398</v>
       </c>
       <c r="F103" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
@@ -3309,19 +3420,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="C104" t="s">
-        <v>111</v>
-      </c>
-      <c r="D104" s="1">
-        <v>1515930.91</v>
+        <v>82</v>
+      </c>
+      <c r="D104">
+        <v>3273959.07</v>
       </c>
       <c r="E104">
-        <v>14.23154027</v>
+        <v>15.0015105353078</v>
       </c>
       <c r="F104" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
@@ -3329,19 +3440,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>21</v>
+        <v>154</v>
       </c>
       <c r="C105" t="s">
-        <v>112</v>
-      </c>
-      <c r="D105" s="1">
-        <v>1425388</v>
+        <v>79</v>
+      </c>
+      <c r="D105">
+        <v>3185056</v>
       </c>
       <c r="E105">
-        <v>14.16995462</v>
+        <v>14.9739804292514</v>
       </c>
       <c r="F105" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
@@ -3349,19 +3460,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C106" t="s">
-        <v>113</v>
-      </c>
-      <c r="D106" s="1">
-        <v>1094570</v>
+        <v>81</v>
+      </c>
+      <c r="D106">
+        <v>3063188.32</v>
       </c>
       <c r="E106">
-        <v>13.90587215</v>
+        <v>14.9349668661319</v>
       </c>
       <c r="F106" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
@@ -3369,19 +3480,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="C107" t="s">
-        <v>114</v>
-      </c>
-      <c r="D107" s="1">
-        <v>998132.75</v>
+        <v>80</v>
+      </c>
+      <c r="D107">
+        <v>2856870</v>
       </c>
       <c r="E107">
-        <v>13.813641560000001</v>
+        <v>14.8652371779025</v>
       </c>
       <c r="F107" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.35">
@@ -3389,19 +3500,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C108" t="s">
-        <v>115</v>
-      </c>
-      <c r="D108" s="1">
-        <v>568497.31999999995</v>
+        <v>144</v>
+      </c>
+      <c r="D108">
+        <v>2831967.14</v>
       </c>
       <c r="E108">
-        <v>13.250751879999999</v>
+        <v>14.856482130621</v>
       </c>
       <c r="F108" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
@@ -3409,19 +3520,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="C109" t="s">
-        <v>116</v>
-      </c>
-      <c r="D109" s="1">
-        <v>497141</v>
+        <v>84</v>
+      </c>
+      <c r="D109">
+        <v>2726562.21</v>
       </c>
       <c r="E109">
-        <v>13.116628970000001</v>
+        <v>14.818552109885999</v>
       </c>
       <c r="F109" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.35">
@@ -3429,19 +3540,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="C110" t="s">
-        <v>117</v>
-      </c>
-      <c r="D110" s="1">
-        <v>474403</v>
+        <v>85</v>
+      </c>
+      <c r="D110">
+        <v>2717734.3299999898</v>
       </c>
       <c r="E110">
-        <v>13.069812450000001</v>
+        <v>14.8153091242507</v>
       </c>
       <c r="F110" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
@@ -3449,19 +3560,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="C111" t="s">
-        <v>118</v>
-      </c>
-      <c r="D111" s="1">
-        <v>474403</v>
+        <v>86</v>
+      </c>
+      <c r="D111">
+        <v>2598078</v>
       </c>
       <c r="E111">
-        <v>13.069812450000001</v>
+        <v>14.7702824988566</v>
       </c>
       <c r="F111" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.35">
@@ -3469,19 +3580,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C112" t="s">
-        <v>119</v>
-      </c>
-      <c r="D112" s="1">
-        <v>424046.08000000002</v>
+        <v>87</v>
+      </c>
+      <c r="D112">
+        <v>2598078</v>
       </c>
       <c r="E112">
-        <v>12.95759741</v>
+        <v>14.7702824988566</v>
       </c>
       <c r="F112" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.35">
@@ -3489,19 +3600,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>35</v>
+        <v>141</v>
       </c>
       <c r="C113" t="s">
-        <v>120</v>
-      </c>
-      <c r="D113" s="1">
-        <v>340986</v>
+        <v>145</v>
+      </c>
+      <c r="D113">
+        <v>2586948</v>
       </c>
       <c r="E113">
-        <v>12.7395967</v>
+        <v>14.7659893604636</v>
       </c>
       <c r="F113" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.35">
@@ -3509,19 +3620,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="C114" t="s">
-        <v>121</v>
-      </c>
-      <c r="D114" s="1">
-        <v>332068.90999999997</v>
+        <v>83</v>
+      </c>
+      <c r="D114">
+        <v>2497203</v>
       </c>
       <c r="E114">
-        <v>12.713097790000001</v>
+        <v>14.7306818635145</v>
       </c>
       <c r="F114" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.35">
@@ -3529,19 +3640,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="C115" t="s">
-        <v>122</v>
-      </c>
-      <c r="D115" s="1">
-        <v>320585.14</v>
+        <v>88</v>
+      </c>
+      <c r="D115">
+        <v>2460596.77</v>
       </c>
       <c r="E115">
-        <v>12.67790317</v>
+        <v>14.715914467919299</v>
       </c>
       <c r="F115" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.35">
@@ -3549,19 +3660,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="C116" t="s">
-        <v>123</v>
-      </c>
-      <c r="D116" s="1">
-        <v>68200</v>
+        <v>146</v>
+      </c>
+      <c r="D116">
+        <v>2437290</v>
       </c>
       <c r="E116">
-        <v>11.13019984</v>
+        <v>14.7063973242965</v>
       </c>
       <c r="F116" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.35">
@@ -3569,20 +3680,784 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="C117" t="s">
+        <v>89</v>
+      </c>
+      <c r="D117">
+        <v>2365983.5</v>
+      </c>
+      <c r="E117">
+        <v>14.676704349700699</v>
+      </c>
+      <c r="F117" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>104</v>
+      </c>
+      <c r="C118" t="s">
+        <v>90</v>
+      </c>
+      <c r="D118">
+        <v>2364694.58</v>
+      </c>
+      <c r="E118">
+        <v>14.676159429919601</v>
+      </c>
+      <c r="F118" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>34</v>
+      </c>
+      <c r="C119" t="s">
+        <v>147</v>
+      </c>
+      <c r="D119">
+        <v>2349000</v>
+      </c>
+      <c r="E119">
+        <v>14.669500263641</v>
+      </c>
+      <c r="F119" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>82</v>
+      </c>
+      <c r="C120" t="s">
+        <v>91</v>
+      </c>
+      <c r="D120">
+        <v>2323024.23</v>
+      </c>
+      <c r="E120">
+        <v>14.658380442175901</v>
+      </c>
+      <c r="F120" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>33</v>
+      </c>
+      <c r="C121" t="s">
+        <v>92</v>
+      </c>
+      <c r="D121">
+        <v>2288255</v>
+      </c>
+      <c r="E121">
+        <v>14.6433000763205</v>
+      </c>
+      <c r="F121" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>72</v>
+      </c>
+      <c r="C122" t="s">
+        <v>93</v>
+      </c>
+      <c r="D122">
+        <v>2279442</v>
+      </c>
+      <c r="E122">
+        <v>14.6394412341355</v>
+      </c>
+      <c r="F122" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>44</v>
+      </c>
+      <c r="C123" t="s">
+        <v>94</v>
+      </c>
+      <c r="D123">
+        <v>2251968.94</v>
+      </c>
+      <c r="E123">
+        <v>14.627315475961799</v>
+      </c>
+      <c r="F123" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>79</v>
+      </c>
+      <c r="C124" t="s">
+        <v>95</v>
+      </c>
+      <c r="D124">
+        <v>2199560</v>
+      </c>
+      <c r="E124">
+        <v>14.603767898325801</v>
+      </c>
+      <c r="F124" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>68</v>
+      </c>
+      <c r="C125" t="s">
+        <v>148</v>
+      </c>
+      <c r="D125">
+        <v>2185595.92</v>
+      </c>
+      <c r="E125">
+        <v>14.597399081592499</v>
+      </c>
+      <c r="F125" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A126">
         <v>124</v>
       </c>
-      <c r="D117" s="1">
+      <c r="B126">
+        <v>102</v>
+      </c>
+      <c r="C126" t="s">
+        <v>96</v>
+      </c>
+      <c r="D126">
+        <v>2144621.65</v>
+      </c>
+      <c r="E126">
+        <v>14.5784737078398</v>
+      </c>
+      <c r="F126" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A127">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>37</v>
+      </c>
+      <c r="C127" t="s">
+        <v>149</v>
+      </c>
+      <c r="D127">
+        <v>2125416.4</v>
+      </c>
+      <c r="E127">
+        <v>14.569478294085499</v>
+      </c>
+      <c r="F127" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A128">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>138</v>
+      </c>
+      <c r="C128" t="s">
+        <v>150</v>
+      </c>
+      <c r="D128">
+        <v>1995007.28</v>
+      </c>
+      <c r="E128">
+        <v>14.5061582574222</v>
+      </c>
+      <c r="F128" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A129">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>42</v>
+      </c>
+      <c r="C129" t="s">
+        <v>151</v>
+      </c>
+      <c r="D129">
+        <v>1808790.25</v>
+      </c>
+      <c r="E129">
+        <v>14.408168809617299</v>
+      </c>
+      <c r="F129" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A130">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>58</v>
+      </c>
+      <c r="C130" t="s">
+        <v>97</v>
+      </c>
+      <c r="D130">
+        <v>1765344.83</v>
+      </c>
+      <c r="E130">
+        <v>14.3838566003719</v>
+      </c>
+      <c r="F130" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A131">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>74</v>
+      </c>
+      <c r="C131" t="s">
+        <v>98</v>
+      </c>
+      <c r="D131">
+        <v>1533408.1199999901</v>
+      </c>
+      <c r="E131">
+        <v>14.243003345514801</v>
+      </c>
+      <c r="F131" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A132">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>25</v>
+      </c>
+      <c r="C132" t="s">
+        <v>99</v>
+      </c>
+      <c r="D132">
+        <v>1515930.91</v>
+      </c>
+      <c r="E132">
+        <v>14.231540270267301</v>
+      </c>
+      <c r="F132" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A133">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>99</v>
+      </c>
+      <c r="C133" t="s">
+        <v>152</v>
+      </c>
+      <c r="D133">
+        <v>1454506.29</v>
+      </c>
+      <c r="E133">
+        <v>14.190177081418099</v>
+      </c>
+      <c r="F133" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A134">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>36</v>
+      </c>
+      <c r="C134" t="s">
+        <v>100</v>
+      </c>
+      <c r="D134">
+        <v>1425388</v>
+      </c>
+      <c r="E134">
+        <v>14.169954615324899</v>
+      </c>
+      <c r="F134" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A135">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>115</v>
+      </c>
+      <c r="C135" t="s">
+        <v>153</v>
+      </c>
+      <c r="D135">
+        <v>1295764.98</v>
+      </c>
+      <c r="E135">
+        <v>14.0746117968572</v>
+      </c>
+      <c r="F135" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A136">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>21</v>
+      </c>
+      <c r="C136" t="s">
+        <v>154</v>
+      </c>
+      <c r="D136">
+        <v>1191496</v>
+      </c>
+      <c r="E136">
+        <v>13.9907202184024</v>
+      </c>
+      <c r="F136" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A137">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>150</v>
+      </c>
+      <c r="C137" t="s">
+        <v>101</v>
+      </c>
+      <c r="D137">
+        <v>1094570</v>
+      </c>
+      <c r="E137">
+        <v>13.905872150044299</v>
+      </c>
+      <c r="F137" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A138">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>43</v>
+      </c>
+      <c r="C138" t="s">
+        <v>155</v>
+      </c>
+      <c r="D138">
+        <v>1008023</v>
+      </c>
+      <c r="E138">
+        <v>13.8235015448134</v>
+      </c>
+      <c r="F138" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A139">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>96</v>
+      </c>
+      <c r="C139" t="s">
+        <v>102</v>
+      </c>
+      <c r="D139">
+        <v>998132.75</v>
+      </c>
+      <c r="E139">
+        <v>13.8136415624798</v>
+      </c>
+      <c r="F139" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A140">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>129</v>
+      </c>
+      <c r="C140" t="s">
+        <v>103</v>
+      </c>
+      <c r="D140">
+        <v>568497.31999999995</v>
+      </c>
+      <c r="E140">
+        <v>13.2507518780015</v>
+      </c>
+      <c r="F140" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A141">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>146</v>
+      </c>
+      <c r="C141" t="s">
+        <v>156</v>
+      </c>
+      <c r="D141">
+        <v>548000</v>
+      </c>
+      <c r="E141">
+        <v>13.2140305659301</v>
+      </c>
+      <c r="F141" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A142">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>22</v>
+      </c>
+      <c r="C142" t="s">
+        <v>105</v>
+      </c>
+      <c r="D142">
+        <v>474403</v>
+      </c>
+      <c r="E142">
+        <v>13.069812450423001</v>
+      </c>
+      <c r="F142" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A143">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>71</v>
+      </c>
+      <c r="C143" t="s">
+        <v>104</v>
+      </c>
+      <c r="D143">
+        <v>474403</v>
+      </c>
+      <c r="E143">
+        <v>13.069812450423001</v>
+      </c>
+      <c r="F143" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A144">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>66</v>
+      </c>
+      <c r="C144" t="s">
+        <v>106</v>
+      </c>
+      <c r="D144">
+        <v>424046.07999999903</v>
+      </c>
+      <c r="E144">
+        <v>12.9575974075542</v>
+      </c>
+      <c r="F144" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A145">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>92</v>
+      </c>
+      <c r="C145" t="s">
+        <v>157</v>
+      </c>
+      <c r="D145">
+        <v>411324.3</v>
+      </c>
+      <c r="E145">
+        <v>12.927137233436101</v>
+      </c>
+      <c r="F145" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A146">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>53</v>
+      </c>
+      <c r="C146" t="s">
+        <v>107</v>
+      </c>
+      <c r="D146">
+        <v>340986</v>
+      </c>
+      <c r="E146">
+        <v>12.7395966997043</v>
+      </c>
+      <c r="F146" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A147">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>144</v>
+      </c>
+      <c r="C147" t="s">
+        <v>108</v>
+      </c>
+      <c r="D147">
+        <v>332068.90999999997</v>
+      </c>
+      <c r="E147">
+        <v>12.713097786601899</v>
+      </c>
+      <c r="F147" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A148">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>16</v>
+      </c>
+      <c r="C148" t="s">
+        <v>109</v>
+      </c>
+      <c r="D148">
+        <v>320585.15000000002</v>
+      </c>
+      <c r="E148">
+        <v>12.6779031986836</v>
+      </c>
+      <c r="F148" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A149">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>29</v>
+      </c>
+      <c r="C149" t="s">
+        <v>158</v>
+      </c>
+      <c r="D149">
+        <v>123094.15</v>
+      </c>
+      <c r="E149">
+        <v>11.720704788703699</v>
+      </c>
+      <c r="F149" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A150">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>40</v>
+      </c>
+      <c r="C150" t="s">
+        <v>110</v>
+      </c>
+      <c r="D150">
+        <v>68200</v>
+      </c>
+      <c r="E150">
+        <v>11.1301998438315</v>
+      </c>
+      <c r="F150" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A151">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>13</v>
+      </c>
+      <c r="C151" t="s">
+        <v>159</v>
+      </c>
+      <c r="D151">
+        <v>43500</v>
+      </c>
+      <c r="E151">
+        <v>10.680516217076701</v>
+      </c>
+      <c r="F151" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A152">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>31</v>
+      </c>
+      <c r="C152" t="s">
+        <v>111</v>
+      </c>
+      <c r="D152">
         <v>43293.04</v>
       </c>
-      <c r="E117">
-        <v>10.67574716</v>
-      </c>
-      <c r="F117" t="s">
-        <v>82</v>
-      </c>
+      <c r="E152">
+        <v>10.675747162040601</v>
+      </c>
+      <c r="F152" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A153">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>103</v>
+      </c>
+      <c r="C153" t="s">
+        <v>160</v>
+      </c>
+      <c r="D153">
+        <v>11422</v>
+      </c>
+      <c r="E153">
+        <v>9.3432965992248</v>
+      </c>
+      <c r="F153" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A154">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>64</v>
+      </c>
+      <c r="C154" t="s">
+        <v>161</v>
+      </c>
+      <c r="D154">
+        <v>2845</v>
+      </c>
+      <c r="E154">
+        <v>7.9533183465604296</v>
+      </c>
+      <c r="F154" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D155"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D156"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D157"/>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D158"/>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D159"/>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D160"/>
+    </row>
+    <row r="161" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D161"/>
+    </row>
+    <row r="162" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D162"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
